--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,45 +456,50 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ed_simul</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>log_w_simul</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>cf1_simul</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>cf10_simul</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>diffcpicf_simul</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>grpe_shock_series</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>grpf_shock_series</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>vu_shock_series</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>excess_demand_shock_series</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>gscpi_shock_series</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>gcu_shock_series</t>
         </is>
@@ -540,6 +545,9 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -581,6 +589,9 @@
       <c r="M3" t="n">
         <v>0</v>
       </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -622,6 +633,9 @@
       <c r="M4" t="n">
         <v>0</v>
       </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -663,6 +677,9 @@
       <c r="M5" t="n">
         <v>0</v>
       </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -672,25 +689,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6531771890147307</v>
+        <v>0.5961359075206103</v>
       </c>
       <c r="D6" t="n">
-        <v>6.082267263262883</v>
+        <v>5.551109217756756</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04920095719609423</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01983785289267526</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1632942972536827</v>
+        <v>0.04490428900803954</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0181054339256306</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.1490339768801526</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -699,9 +716,12 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
         <v>1.377296415446062</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -710,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02496763376880273</v>
+        <v>0.02400661722785494</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.4249469707418249</v>
+        <v>-0.409869397565502</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.429548852756529</v>
+        <v>-2.426727216648432</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06801380732028907</v>
+        <v>5.001378589136447e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01051673759112143</v>
+        <v>6.001654306963736e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05705755456822645</v>
+        <v>0.06041461385387593</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.008929162702981176</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.04656662748877707</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -743,6 +763,9 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -751,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02522285629275897</v>
+        <v>0.02322511071813167</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2223478938964022</v>
+        <v>0.2214852390774799</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2535079707154739</v>
+        <v>0.3457471476763202</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02086897515516133</v>
+        <v>9.26370537314517e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003900623991298496</v>
+        <v>0.0001180793198649665</v>
       </c>
       <c r="G8" t="n">
-        <v>0.112644528042327</v>
+        <v>-0.02102278689654915</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.003333429718469916</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.1019379372581471</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -784,6 +807,9 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01330779571412049</v>
+        <v>0.01207945815522721</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1077149221041002</v>
+        <v>-0.112597298876978</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07463103728876264</v>
+        <v>-0.0001581732315034667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02090749131527772</v>
+        <v>0.0001074812367295797</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009866769576511163</v>
+        <v>0.0001482779652530346</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08571579751630193</v>
+        <v>0.0199205522308342</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.008818707328443563</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.07378861253890256</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -825,6 +851,9 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02524039854305338</v>
+        <v>0.02538067292361318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2615239809018772</v>
+        <v>0.243271611764481</v>
       </c>
       <c r="D10" t="n">
-        <v>4.191794435471024</v>
+        <v>3.796338763431827</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01146831626306299</v>
+        <v>0.0001519403724787668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01142618086283428</v>
+        <v>0.0002117296475620675</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06139846170800566</v>
+        <v>0.008971144870970605</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.009961051213274978</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>-0.05933175040816931</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -866,6 +895,9 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -874,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002813962166445968</v>
+        <v>0.004836086517033407</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0354266054639442</v>
+        <v>-0.02871215895789773</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4197561261810965</v>
+        <v>-0.422197941500805</v>
       </c>
       <c r="E11" t="n">
-        <v>0.04680458791179769</v>
+        <v>0.0001476275298942153</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01423771199452944</v>
+        <v>0.000223819863854651</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01716877948726966</v>
+        <v>0.04321105240518484</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.01297769027517894</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.02044723439789535</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -907,6 +939,9 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -915,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02173922318387868</v>
+        <v>0.01975267945330552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04161108239074653</v>
+        <v>0.04174465556785388</v>
       </c>
       <c r="D12" t="n">
-        <v>0.254822875055221</v>
+        <v>0.2967288578027898</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01334158007661728</v>
+        <v>0.0001790992986613446</v>
       </c>
       <c r="F12" t="n">
-        <v>0.01070705772993874</v>
+        <v>0.0002732015624879148</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06086735908630617</v>
+        <v>0.0126503956709828</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.009772515665097835</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.05694948927091393</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -948,6 +983,9 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01480815224897239</v>
+        <v>0.01607279883779051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04356384170256906</v>
+        <v>0.04082379255697367</v>
       </c>
       <c r="D13" t="n">
-        <v>1.054118317753659</v>
+        <v>0.9255647512647187</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0162944017713563</v>
+        <v>0.0002010078544428359</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01294345696609452</v>
+        <v>0.0003133835595823911</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05691058356753444</v>
+        <v>0.01555989681801996</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.01182423509561278</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.05436142300201849</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -989,6 +1027,9 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -997,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02321037955547136</v>
+        <v>0.02167916630452721</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02895074861407149</v>
+        <v>-0.01879316916941899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.984652400771722</v>
+        <v>0.9225749142312889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01269211672288212</v>
+        <v>0.0002355745571115267</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01096946227786085</v>
+        <v>0.0003675814753437091</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.006268923759238012</v>
+        <v>0.0123996938550625</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.01021423508698837</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0.0002053648715928981</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1030,6 +1071,9 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1038,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01447541239283746</v>
+        <v>0.01591580556619047</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004191850262297002</v>
+        <v>0.006084826531747174</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03361911399334472</v>
+        <v>0.04943437358682982</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008926907748297953</v>
+        <v>0.0002556952088107884</v>
       </c>
       <c r="F15" t="n">
-        <v>0.009979560124017276</v>
+        <v>0.0004073709892591853</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.03170058147641241</v>
+        <v>0.009434199196150368</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.009396354075836834</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>-0.0257460260333959</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1071,6 +1115,9 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1079,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.009756614356526708</v>
+        <v>0.01006971003282499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0077940770136315</v>
+        <v>0.0112358013371808</v>
       </c>
       <c r="D16" t="n">
-        <v>0.371305206620226</v>
+        <v>0.3646896908383611</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0101749418670498</v>
+        <v>0.0002621448516333275</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0106161283656658</v>
+        <v>0.0004325452643412478</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.006691824985510757</v>
+        <v>0.01021708403785697</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.009979821793613114</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.002812582856862131</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1112,6 +1159,9 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1120,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01182136950744622</v>
+        <v>0.01208452487338541</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01561711094814652</v>
+        <v>-0.01114192511815942</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5215426784330215</v>
+        <v>0.4830536139193458</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007261866578397281</v>
+        <v>0.0002740839035782416</v>
       </c>
       <c r="F17" t="n">
-        <v>0.009739414482187412</v>
+        <v>0.0004627565765247113</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02443988484292867</v>
+        <v>0.007763086672878479</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.009268337678711436</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-0.01871351342268257</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1153,6 +1203,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1161,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.008921946007360222</v>
+        <v>0.009200968654888567</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001858370971550415</v>
+        <v>0.004626622823991209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2859528540865958</v>
+        <v>0.2892384934316975</v>
       </c>
       <c r="E18" t="n">
-        <v>0.006076186131919717</v>
+        <v>0.0002796106590263181</v>
       </c>
       <c r="F18" t="n">
-        <v>0.009417358069099163</v>
+        <v>0.0004857589981619328</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.01313531989804902</v>
+        <v>0.006540090766480594</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.008997839944346792</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>-0.009698362461372562</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1194,6 +1247,9 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009891076958610434</v>
+        <v>0.009522877901689659</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.002477098155588369</v>
+        <v>-4.75535614179257e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1323735572219552</v>
+        <v>0.1439237174767971</v>
       </c>
       <c r="E19" t="n">
-        <v>0.007792193123664163</v>
+        <v>0.00028656130634829</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009468308133146083</v>
+        <v>0.0005095661929161569</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0110373480279362</v>
+        <v>0.008076473460189058</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.009068962244242047</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>-0.008265962825751703</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1235,6 +1291,9 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009206730665165263</v>
+        <v>0.009144200201002836</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.002143624523429482</v>
+        <v>-3.017338139715484e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2394699176711944</v>
+        <v>0.2386078042029175</v>
       </c>
       <c r="E20" t="n">
-        <v>0.006758935597524742</v>
+        <v>0.0002931364485954919</v>
       </c>
       <c r="F20" t="n">
-        <v>0.009111106153524597</v>
+        <v>0.000532426693418664</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01476980753095329</v>
+        <v>0.007042546104460769</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.008758263596835332</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-0.0118653413471028</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1276,6 +1335,9 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008438956762438603</v>
+        <v>0.008063161235427793</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001261732192456578</v>
+        <v>0.002767506262181906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2145153914591814</v>
+        <v>0.2161339793628493</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006716901646897426</v>
+        <v>0.0002976296340998583</v>
       </c>
       <c r="F21" t="n">
-        <v>0.009022355985426231</v>
+        <v>0.0005525845965072334</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007637021457149996</v>
+        <v>0.006936289717848446</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.00869075747202731</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>-0.005933986137038971</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1317,6 +1379,9 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1325,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008718424180026588</v>
+        <v>0.008268775791118411</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0002140128693237358</v>
+        <v>0.001171180952277573</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1212845893440379</v>
+        <v>0.1348267077250175</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006977796043594544</v>
+        <v>0.0003031443557882422</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00888913928409601</v>
+        <v>0.0005732565359850294</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.006969436970890969</v>
+        <v>0.007109555909832315</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.008577653280516002</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.005574850698569495</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1358,6 +1423,9 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1366,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008225292306389794</v>
+        <v>0.007917127873737422</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002250875449077658</v>
+        <v>0.003084939144561737</v>
       </c>
       <c r="D23" t="n">
-        <v>0.105844438271589</v>
+        <v>0.1172168411360914</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006968915014573922</v>
+        <v>0.0003082582129511046</v>
       </c>
       <c r="F23" t="n">
-        <v>0.008751831963505124</v>
+        <v>0.000593049355669373</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.007503450561468909</v>
+        <v>0.007047156144053879</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.008455111151084034</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-0.006328110215783042</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1399,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1407,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.008086008460160539</v>
+        <v>0.00763575111872803</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003108500640757379</v>
+        <v>0.003825306772472685</v>
       </c>
       <c r="D24" t="n">
-        <v>0.121825293393678</v>
+        <v>0.1310201210010848</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007215510667017633</v>
+        <v>0.0003131150868023627</v>
       </c>
       <c r="F24" t="n">
-        <v>0.008697899883315954</v>
+        <v>0.0006121387334661931</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.005157161744282773</v>
+        <v>0.007218273142898136</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>0.008409466757914147</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0.004330312821587294</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1440,6 +1511,9 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.008011914804689452</v>
+        <v>0.007629873168514203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.002669863631527856</v>
+        <v>0.003276635126086029</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09208914216825234</v>
+        <v>0.1044675093154882</v>
       </c>
       <c r="E25" t="n">
-        <v>0.007219736824294715</v>
+        <v>0.0003183485293184962</v>
       </c>
       <c r="F25" t="n">
-        <v>0.008588690559809938</v>
+        <v>0.0006312134163874786</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.004763094933887637</v>
+        <v>0.0071940583731814</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.008314053847446299</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-0.004096774218998941</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1481,6 +1555,9 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1489,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007821749223185355</v>
+        <v>0.007471884482613098</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004197464597185296</v>
+        <v>0.004598850835269314</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06477656143111458</v>
+        <v>0.07927508724542055</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007251876980707882</v>
+        <v>0.0003235471109040278</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00851406255107826</v>
+        <v>0.0006498931275940113</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.003921119963957498</v>
+        <v>0.007194731342824928</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.008247766079618102</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-0.003413122940234873</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1522,6 +1599,9 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1530,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007851915245103272</v>
+        <v>0.007484232448709761</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004553998213802366</v>
+        <v>0.004875250401170123</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06280724758964934</v>
+        <v>0.07594428136652467</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007439714265611715</v>
+        <v>0.0003290939346401944</v>
       </c>
       <c r="F27" t="n">
-        <v>0.008467856975841091</v>
+        <v>0.0006686037087157857</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.003336458243755698</v>
+        <v>0.007350203389359361</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.008208480346857006</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>-0.002903145360304341</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1563,6 +1643,9 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1571,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007788208635973824</v>
+        <v>0.007475490544362856</v>
       </c>
       <c r="C28" t="n">
-        <v>0.004747443558270746</v>
+        <v>0.005044255802516574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.05811542319748275</v>
+        <v>0.07143726366357067</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007484545062808044</v>
+        <v>0.0003349018217047645</v>
       </c>
       <c r="F28" t="n">
-        <v>0.008401602193942618</v>
+        <v>0.0006872924350766929</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.003173318166821068</v>
+        <v>0.007379675421919432</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.008151413571153163</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-0.002769525101637626</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1604,6 +1687,9 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1612,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.00774145139548289</v>
+        <v>0.007441669280036305</v>
       </c>
       <c r="C29" t="n">
-        <v>0.00537299985634614</v>
+        <v>0.005612886184765648</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04364062600499137</v>
+        <v>0.05813323700667149</v>
       </c>
       <c r="E29" t="n">
-        <v>0.007531259553120482</v>
+        <v>0.0003408807808011104</v>
       </c>
       <c r="F29" t="n">
-        <v>0.008354521708225076</v>
+        <v>0.0007058966082767837</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002501760267893578</v>
+        <v>0.007419033591018775</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.008112524469937181</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-0.002161247567250985</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1645,6 +1731,9 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1653,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.007772419545807071</v>
+        <v>0.007488726249890851</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005661751000265064</v>
+        <v>0.005871446050236715</v>
       </c>
       <c r="D30" t="n">
-        <v>0.03569707229159774</v>
+        <v>0.05022583862042819</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007606646384019895</v>
+        <v>0.0003472025068939121</v>
       </c>
       <c r="F30" t="n">
-        <v>0.008316317498519177</v>
+        <v>0.0007246184239015108</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.002167828823536804</v>
+        <v>0.007488055251781056</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.008081763172538812</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>-0.001843771733152664</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1686,6 +1775,9 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007766924086384464</v>
+        <v>0.007513384762539282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.005968930801126364</v>
+        <v>0.006173463511574171</v>
       </c>
       <c r="D31" t="n">
-        <v>0.03316552494993554</v>
+        <v>0.04733577606977136</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007659232224430833</v>
+        <v>0.0003537864365069183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008278164790898952</v>
+        <v>0.000743401885807859</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.002001932961609637</v>
+        <v>0.007538500631446197</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.008051711517631271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.001674690502086084</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1727,6 +1819,9 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007778506340921759</v>
+        <v>0.007537952426067434</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006256761384104833</v>
+        <v>0.006461998308945976</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02795509204571243</v>
+        <v>0.04243702280189933</v>
       </c>
       <c r="E32" t="n">
-        <v>0.007712529759211981</v>
+        <v>0.0003606109524891163</v>
       </c>
       <c r="F32" t="n">
-        <v>0.008247786694337601</v>
+        <v>0.0007622467668730276</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.001669434302347444</v>
+        <v>0.007593701658749044</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.008029665361708528</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>-0.001349726908038805</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1768,6 +1863,9 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1776,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007800397086198445</v>
+        <v>0.007579599619021338</v>
       </c>
       <c r="C33" t="n">
-        <v>0.006467811917648252</v>
+        <v>0.00667172666337233</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02209148289181823</v>
+        <v>0.03682751420565435</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00775214804784648</v>
+        <v>0.0003676987030511487</v>
       </c>
       <c r="F33" t="n">
-        <v>0.008220578845877409</v>
+        <v>0.0007811957659205809</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.001442445777334354</v>
+        <v>0.007638130169033575</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>0.008010719124286286</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>-0.001124374957486477</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -1809,6 +1907,9 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi.xlsx
+++ b/Replication Package/Code and Data/(3) Core Results/IRFs/Output Data Python (New Model)/results_gscpi.xlsx
@@ -730,28 +730,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02400661722785494</v>
+        <v>0.02323531010561348</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.409869397565502</v>
+        <v>-0.4101468547045449</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.426727216648432</v>
+        <v>-2.426663829547283</v>
       </c>
       <c r="E7" t="n">
-        <v>5.001378589136447e-05</v>
+        <v>4.840689605336142e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>6.001654306963736e-05</v>
+        <v>5.80882752640337e-05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06041461385387593</v>
+        <v>0.06039371423115274</v>
       </c>
       <c r="H7" t="n">
-        <v>0.008929162702981176</v>
+        <v>0.00892073596365083</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04656662748877707</v>
+        <v>0.04649726320401634</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -774,28 +774,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02322511071813167</v>
+        <v>0.0239026312626384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2214852390774799</v>
+        <v>0.2215662532201891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3457471476763202</v>
+        <v>0.3455677872875541</v>
       </c>
       <c r="E8" t="n">
-        <v>9.26370537314517e-05</v>
+        <v>9.271154932282064e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001180793198649665</v>
+        <v>0.0001178448534206297</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02102278689654915</v>
+        <v>-0.02105917239009112</v>
       </c>
       <c r="H8" t="n">
-        <v>0.003333429718469916</v>
+        <v>0.003325940610288035</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1019379372581471</v>
+        <v>0.1018888265090636</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -818,28 +818,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01207945815522721</v>
+        <v>0.01199717411022643</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.112597298876978</v>
+        <v>-0.1125696585829854</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0001581732315034667</v>
+        <v>-8.640093976342023e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001074812367295797</v>
+        <v>0.0001073664240235884</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001482779652530346</v>
+        <v>0.0001478377886961958</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0199205522308342</v>
+        <v>0.01992337740174115</v>
       </c>
       <c r="H9" t="n">
-        <v>0.008818707328443563</v>
+        <v>0.008817190537109566</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07378861253890256</v>
+        <v>0.07374641186331728</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02538067292361318</v>
+        <v>0.02447793941683436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.243271611764481</v>
+        <v>0.2428918763512022</v>
       </c>
       <c r="D10" t="n">
-        <v>3.796338763431827</v>
+        <v>3.796540522098701</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001519403724787668</v>
+        <v>0.0001498322422805994</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002117296475620675</v>
+        <v>0.0002090326372382817</v>
       </c>
       <c r="G10" t="n">
-        <v>0.008971144870970605</v>
+        <v>0.008944727147129877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.009961051213274978</v>
+        <v>0.009946428682543765</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.05933175040816931</v>
+        <v>-0.05946888493707428</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.004836086517033407</v>
+        <v>0.007259885367150221</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.02871215895789773</v>
+        <v>-0.0280103473755606</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.422197941500805</v>
+        <v>-0.4226887143766168</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001476275298942153</v>
+        <v>0.0001511837601286274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000223819863854651</v>
+        <v>0.0002271823506561572</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04321105240518484</v>
+        <v>0.04320543333488645</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01297769027517894</v>
+        <v>0.01298256843846745</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02044723439789535</v>
+        <v>0.02057581667205859</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -950,28 +950,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01975267945330552</v>
+        <v>0.01856780691846898</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04174465556785388</v>
+        <v>0.04175480668527704</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2967288578027898</v>
+        <v>0.2971638653667143</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001790992986613446</v>
+        <v>0.0001796393431134544</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0002732015624879148</v>
+        <v>0.0002736018679523297</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0126503956709828</v>
+        <v>0.01273803412209306</v>
       </c>
       <c r="H12" t="n">
-        <v>0.009772515665097835</v>
+        <v>0.009788085569762172</v>
       </c>
       <c r="I12" t="n">
-        <v>0.05694948927091393</v>
+        <v>0.05707584165957445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -994,28 +994,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01607279883779051</v>
+        <v>0.0165783334191887</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04082379255697367</v>
+        <v>0.04087683364918411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9255647512647187</v>
+        <v>0.9256375045091968</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002010078544428359</v>
+        <v>0.0002026614119396406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0003133835595823911</v>
+        <v>0.0003150477015003014</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01555989681801996</v>
+        <v>0.01558379397992369</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01182423509561278</v>
+        <v>0.01182896111463644</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05436142300201849</v>
+        <v>0.05445491492578455</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1038,28 +1038,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.02167916630452721</v>
+        <v>0.02161004556831655</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.01879316916941899</v>
+        <v>-0.01855242537370057</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9225749142312889</v>
+        <v>0.9222341269826717</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002355745571115267</v>
+        <v>0.0002369414084865526</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0003675814753437091</v>
+        <v>0.0003690728154210928</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0123996938550625</v>
+        <v>0.01243476743024449</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01021423508698837</v>
+        <v>0.01022824293587861</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.0002053648715928981</v>
+        <v>7.24897491701168e-05</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01591580556619047</v>
+        <v>0.01651278382274458</v>
       </c>
       <c r="C15" t="n">
-        <v>0.006084826531747174</v>
+        <v>0.006353173380719066</v>
       </c>
       <c r="D15" t="n">
-        <v>0.04943437358682982</v>
+        <v>0.04956647614393536</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0002556952088107884</v>
+        <v>0.0002583502703260274</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0004073709892591853</v>
+        <v>0.0004103547749779542</v>
       </c>
       <c r="G15" t="n">
-        <v>0.009434199196150368</v>
+        <v>0.009491690038046752</v>
       </c>
       <c r="H15" t="n">
-        <v>0.009396354075836834</v>
+        <v>0.009417797388371334</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0257460260333959</v>
+        <v>-0.02559733624951654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01006971003282499</v>
+        <v>0.01040902582856015</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0112358013371808</v>
+        <v>0.01148463828014233</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3646896908383611</v>
+        <v>0.3648203923538895</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0002621448516333275</v>
+        <v>0.0002654146459042659</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0004325452643412478</v>
+        <v>0.0004363773395493546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01021708403785697</v>
+        <v>0.01029298537469679</v>
       </c>
       <c r="H16" t="n">
-        <v>0.009979821793613114</v>
+        <v>0.01000560571359872</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.002812582856862131</v>
+        <v>-0.002697479138006827</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1170,28 +1170,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01208452487338541</v>
+        <v>0.01210571456896956</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.01114192511815942</v>
+        <v>-0.01090914551644452</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4830536139193458</v>
+        <v>0.483131458212877</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0002740839035782416</v>
+        <v>0.0002771989990562717</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0004627565765247113</v>
+        <v>0.0004666416259717785</v>
       </c>
       <c r="G17" t="n">
-        <v>0.007763086672878479</v>
+        <v>0.007843013746280721</v>
       </c>
       <c r="H17" t="n">
-        <v>0.009268337678711436</v>
+        <v>0.009298457329553573</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.01871351342268257</v>
+        <v>-0.01848973378724461</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.009200968654888567</v>
+        <v>0.009580521263802518</v>
       </c>
       <c r="C18" t="n">
-        <v>0.004626622823991209</v>
+        <v>0.004879040417804802</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2892384934316975</v>
+        <v>0.2891379315785145</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0002796106590263181</v>
+        <v>0.0002834355785560263</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0004857589981619328</v>
+        <v>0.0004905929291312848</v>
       </c>
       <c r="G18" t="n">
-        <v>0.006540090766480594</v>
+        <v>0.006617333945109605</v>
       </c>
       <c r="H18" t="n">
-        <v>0.008997839944346792</v>
+        <v>0.009032394050737703</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.009698362461372562</v>
+        <v>-0.00948284078968907</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1258,28 +1258,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.009522877901689659</v>
+        <v>0.009626335916753168</v>
       </c>
       <c r="C19" t="n">
-        <v>-4.75535614179257e-05</v>
+        <v>0.0001868612927245267</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1439237174767971</v>
+        <v>0.1440490029920411</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00028656130634829</v>
+        <v>0.0002904180062174699</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0005095661929161569</v>
+        <v>0.0005146587689231677</v>
       </c>
       <c r="G19" t="n">
-        <v>0.008076473460189058</v>
+        <v>0.008157593536684988</v>
       </c>
       <c r="H19" t="n">
-        <v>0.009068962244242047</v>
+        <v>0.009107435769059423</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.008265962825751703</v>
+        <v>-0.008081341419489966</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1302,28 +1302,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.009144200201002836</v>
+        <v>0.009242328962895712</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.017338139715484e-05</v>
+        <v>0.000139660015757985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2386078042029175</v>
+        <v>0.2387410425498189</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0002931364485954919</v>
+        <v>0.0002970225744865666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.000532426693418664</v>
+        <v>0.000537764591330407</v>
       </c>
       <c r="G20" t="n">
-        <v>0.007042546104460769</v>
+        <v>0.007123486453888412</v>
       </c>
       <c r="H20" t="n">
-        <v>0.008758263596835332</v>
+        <v>0.008798351797108018</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.0118653413471028</v>
+        <v>-0.01171888132223609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1346,28 +1346,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.008063161235427793</v>
+        <v>0.008270789579194098</v>
       </c>
       <c r="C21" t="n">
-        <v>0.002767506262181906</v>
+        <v>0.002958028869927491</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2161339793628493</v>
+        <v>0.2161476968619981</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0002976296340998583</v>
+        <v>0.0003018145710128242</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0005525845965072334</v>
+        <v>0.0005584415652783923</v>
       </c>
       <c r="G21" t="n">
-        <v>0.006936289717848446</v>
+        <v>0.007012166127697651</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00869075747202731</v>
+        <v>0.00873302056608042</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.005933986137038971</v>
+        <v>-0.005802116097227019</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1390,28 +1390,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.008268775791118411</v>
+        <v>0.008288747237588816</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001171180952277573</v>
+        <v>0.001312334791904492</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1348267077250175</v>
+        <v>0.1349256842296384</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0003031443557882422</v>
+        <v>0.0003071775610540916</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0005732565359850294</v>
+        <v>0.0005791634333723643</v>
       </c>
       <c r="G22" t="n">
-        <v>0.007109555909832315</v>
+        <v>0.007183293915193069</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008577653280516002</v>
+        <v>0.008621624359383085</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.005574850698569495</v>
+        <v>-0.005468112702530981</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.007917127873737422</v>
+        <v>0.008016152918738279</v>
       </c>
       <c r="C23" t="n">
-        <v>0.003084939144561737</v>
+        <v>0.003195790305450505</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1172168411360914</v>
+        <v>0.1173410187304476</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003082582129511046</v>
+        <v>0.0003123444004713493</v>
       </c>
       <c r="F23" t="n">
-        <v>0.000593049355669373</v>
+        <v>0.00059920381566921</v>
       </c>
       <c r="G23" t="n">
-        <v>0.007047156144053879</v>
+        <v>0.0071134851181762</v>
       </c>
       <c r="H23" t="n">
-        <v>0.008455111151084034</v>
+        <v>0.008499120456556207</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.006328110215783042</v>
+        <v>-0.00625614004092487</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.00763575111872803</v>
+        <v>0.007731830894897271</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003825306772472685</v>
+        <v>0.003946872140068875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1310201210010848</v>
+        <v>0.131110228088294</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0003131150868023627</v>
+        <v>0.0003172533699821319</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0006121387334661931</v>
+        <v>0.0006185333929064531</v>
       </c>
       <c r="G24" t="n">
-        <v>0.007218273142898136</v>
+        <v>0.007282023121245783</v>
       </c>
       <c r="H24" t="n">
-        <v>0.008409466757914147</v>
+        <v>0.008454633503158775</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.004330312821587294</v>
+        <v>-0.004270229927050572</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1522,28 +1522,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007629873168514203</v>
+        <v>0.00766601252869458</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003276635126086029</v>
+        <v>0.003362916597789469</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1044675093154882</v>
+        <v>0.1045855570959494</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0003183485293184962</v>
+        <v>0.0003224009679162072</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0006312134163874786</v>
+        <v>0.0006376984242281896</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0071940583731814</v>
+        <v>0.007256116434916741</v>
       </c>
       <c r="H25" t="n">
-        <v>0.008314053847446299</v>
+        <v>0.008359746312188937</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.004096774218998941</v>
+        <v>-0.004057687668894316</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -1566,28 +1566,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.007471884482613098</v>
+        <v>0.00753717680148564</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004598850835269314</v>
+        <v>0.004674436177456782</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07927508724542055</v>
+        <v>0.07939558313718452</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003235471109040278</v>
+        <v>0.0003275941535231245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0006498931275940113</v>
+        <v>0.0006565413662319037</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007194731342824928</v>
+        <v>0.007251272453401668</v>
       </c>
       <c r="H26" t="n">
-        <v>0.008247766079618102</v>
+        <v>0.008293262169122117</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.003413122940234873</v>
+        <v>-0.003388290110001662</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -1610,28 +1610,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.007484232448709761</v>
+        <v>0.007530870958158856</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004875250401170123</v>
+        <v>0.004950609416462115</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07594428136652467</v>
+        <v>0.07606798406918491</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0003290939346401944</v>
+        <v>0.0003330974335755015</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0006686037087157857</v>
+        <v>0.0006753685436273008</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007350203389359361</v>
+        <v>0.007404639914825276</v>
       </c>
       <c r="H27" t="n">
-        <v>0.008208480346857006</v>
+        <v>0.008254401189326747</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.002903145360304341</v>
+        <v>-0.00287977653523189</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.007475490544362856</v>
+        <v>0.0075131738943254</v>
       </c>
       <c r="C28" t="n">
-        <v>0.005044255802516574</v>
+        <v>0.005101114587138317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07143726366357067</v>
+        <v>0.0715669046495005</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003349018217047645</v>
+        <v>0.0003388477620775626</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0006872924350766929</v>
+        <v>0.0006941514783631143</v>
       </c>
       <c r="G28" t="n">
-        <v>0.007379675421919432</v>
+        <v>0.007432274564633387</v>
       </c>
       <c r="H28" t="n">
-        <v>0.008151413571153163</v>
+        <v>0.008197283076601272</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.002769525101637626</v>
+        <v>-0.002759753926534112</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1698,28 +1698,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.007441669280036305</v>
+        <v>0.007485601339123216</v>
       </c>
       <c r="C29" t="n">
-        <v>0.005612886184765648</v>
+        <v>0.005667690745177017</v>
       </c>
       <c r="D29" t="n">
-        <v>0.05813323700667149</v>
+        <v>0.05826292273875944</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003408807808011104</v>
+        <v>0.0003447917023744645</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0007058966082767837</v>
+        <v>0.0007128654817109223</v>
       </c>
       <c r="G29" t="n">
-        <v>0.007419033591018775</v>
+        <v>0.007468866038855191</v>
       </c>
       <c r="H29" t="n">
-        <v>0.008112524469937181</v>
+        <v>0.008158199151477792</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.002161247567250985</v>
+        <v>-0.002157653703358182</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1742,28 +1742,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.007488726249890851</v>
+        <v>0.007519818066339912</v>
       </c>
       <c r="C30" t="n">
-        <v>0.005871446050236715</v>
+        <v>0.005921292883908511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05022583862042819</v>
+        <v>0.05036104881031735</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0003472025068939121</v>
+        <v>0.0003510536183147861</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0007246184239015108</v>
+        <v>0.000731665026876772</v>
       </c>
       <c r="G30" t="n">
-        <v>0.007488055251781056</v>
+        <v>0.007536595905214284</v>
       </c>
       <c r="H30" t="n">
-        <v>0.008081763172538812</v>
+        <v>0.008127434282642903</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.001843771733152664</v>
+        <v>-0.001841095545230178</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -1786,28 +1786,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.007513384762539282</v>
+        <v>0.007546089487182443</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006173463511574171</v>
+        <v>0.006215540042799809</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04733577606977136</v>
+        <v>0.0474719889718361</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0003537864365069183</v>
+        <v>0.0003575882139649842</v>
       </c>
       <c r="F31" t="n">
-        <v>0.000743401885807859</v>
+        <v>0.0007505302505947281</v>
       </c>
       <c r="G31" t="n">
-        <v>0.007538500631446197</v>
+        <v>0.00758531892839579</v>
       </c>
       <c r="H31" t="n">
-        <v>0.008051711517631271</v>
+        <v>0.008097108545330987</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.001674690502086084</v>
+        <v>-0.001678230350069362</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -1830,28 +1830,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.007537952426067434</v>
+        <v>0.007571149561416893</v>
       </c>
       <c r="C32" t="n">
-        <v>0.006461998308945976</v>
+        <v>0.006504058446986184</v>
       </c>
       <c r="D32" t="n">
-        <v>0.04243702280189933</v>
+        <v>0.04257286198883778</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0003606109524891163</v>
+        <v>0.000364370407614703</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0007622467668730276</v>
+        <v>0.0007694581244982704</v>
       </c>
       <c r="G32" t="n">
-        <v>0.007593701658749044</v>
+        <v>0.007639143358537152</v>
       </c>
       <c r="H32" t="n">
-        <v>0.008029665361708528</v>
+        <v>0.008074851856648045</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.001349726908038805</v>
+        <v>-0.001355129034915506</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -1874,28 +1874,28 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.007579599619021338</v>
+        <v>0.007608575511143739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.00667172666337233</v>
+        <v>0.006710119666832254</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03682751420565435</v>
+        <v>0.0369664108402422</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0003676987030511487</v>
+        <v>0.0003714108511927947</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0007811957659205809</v>
+        <v>0.0007884795632761298</v>
       </c>
       <c r="G33" t="n">
-        <v>0.007638130169033575</v>
+        <v>0.007682862169697081</v>
       </c>
       <c r="H33" t="n">
-        <v>0.008010719124286286</v>
+        <v>0.008055723977634783</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.001124374957486477</v>
+        <v>-0.001131113278723502</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
